--- a/public/members_list_template.xlsx
+++ b/public/members_list_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\payboss-merchant\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA70CA8-F713-41CC-946A-9527837CB22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55942C07-EA5E-42CB-B1D8-8AF9A8EC1F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F532AAA1-3791-1543-91C2-E0C6ACA55344}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>334982/10/1</t>
-  </si>
-  <si>
     <t>123456/64/1</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>member</t>
+  </si>
+  <si>
+    <t>333333/10/1</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -907,46 +907,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
